--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="13850" windowHeight="7130"/>
+    <workbookView activeTab="1" windowWidth="13850" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="With annotations" sheetId="1" r:id="rId1"/>
@@ -36,72 +36,14 @@
     <author>Tarmo Uustalu</author>
   </authors>
   <commentList>
-    <comment ref="Q19" authorId="0">
-      <text>
-        <t>Olarte, Waddington, Barroso-Nascimento, Studer
-</t>
-      </text>
-    </comment>
-    <comment ref="R19" authorId="0">
-      <text>
-        <t>Stark, Yulu Pan
-</t>
-      </text>
-    </comment>
-    <comment ref="V22" authorId="0">
-      <text>
-        <t>Bjarki</t>
-      </text>
-    </comment>
-    <comment ref="U22" authorId="0">
-      <text>
-        <t>Bjarki	
-</t>
-      </text>
-    </comment>
-    <comment ref="S19" authorId="0">
-      <text>
-        <t>Hähnle, Ramanayake, Jalali
-</t>
-      </text>
-    </comment>
-    <comment ref="P19" authorId="0">
-      <text>
-        <t>Jalali
-</t>
-      </text>
-    </comment>
-    <comment ref="P22" authorId="0">
-      <text>
-        <t>Antonis, Vasiliki
-</t>
-      </text>
-    </comment>
-    <comment ref="U19" authorId="0">
-      <text>
-        <t>Yoshida, H Barbosa
-</t>
-      </text>
-    </comment>
-    <comment ref="T19" authorId="0">
-      <text>
-        <t>Yoshida</t>
-      </text>
-    </comment>
-    <comment ref="Y4" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <t>Motalebi changed from Tableaux Saver Early to Tbl+Fro online presenter</t>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="C5" authorId="0">
       <text>
-        <t>Changed Affeldt changed from ITP Saver Late to ITP Full Early
-</t>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0">
-      <text>
-        <t>Changed Affeldt changed from ITP Saver Late to ITP Full Early
+        <t>Sehun Kim cancelled (fully)
 </t>
       </text>
     </comment>
@@ -113,15 +55,73 @@
 </t>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
-        <t>Sehun Kim cancelled (fully)
+        <t>Changed Affeldt changed from ITP Saver Late to ITP Full Early
 </t>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="B5" authorId="0">
+      <text>
+        <t>Changed Affeldt changed from ITP Saver Late to ITP Full Early
+</t>
+      </text>
+    </comment>
+    <comment ref="Y4" authorId="0">
       <text>
         <t>Motalebi changed from Tableaux Saver Early to Tbl+Fro online presenter</t>
+      </text>
+    </comment>
+    <comment ref="T19" authorId="0">
+      <text>
+        <t>Yoshida</t>
+      </text>
+    </comment>
+    <comment ref="U19" authorId="0">
+      <text>
+        <t>Yoshida, H Barbosa
+</t>
+      </text>
+    </comment>
+    <comment ref="P22" authorId="0">
+      <text>
+        <t>Antonis, Vasiliki
+</t>
+      </text>
+    </comment>
+    <comment ref="P19" authorId="0">
+      <text>
+        <t>Jalali
+</t>
+      </text>
+    </comment>
+    <comment ref="S19" authorId="0">
+      <text>
+        <t>Hähnle, Ramanayake, Jalali
+</t>
+      </text>
+    </comment>
+    <comment ref="U22" authorId="0">
+      <text>
+        <t>Bjarki	
+</t>
+      </text>
+    </comment>
+    <comment ref="V22" authorId="0">
+      <text>
+        <t>Bjarki</t>
+      </text>
+    </comment>
+    <comment ref="R19" authorId="0">
+      <text>
+        <t>Stark, Yulu Pan
+</t>
+      </text>
+    </comment>
+    <comment ref="Q19" authorId="0">
+      <text>
+        <t>Olarte, Waddington, Barroso-Nascimento, Studer
+</t>
       </text>
     </comment>
   </commentList>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144" count="144">
   <si>
     <t>Sat 27 Sept</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>Serdar Erbatur, Andrew M. Marshall, Paliath Narendran and Christophe Ringeissen. Graph Embedded Rewrite Systems: Combination and Undecidability Results</t>
-  </si>
-  <si>
-    <t>Ringeissen</t>
   </si>
   <si>
     <t>Anshula Gandhi, Anand Rao Tadipatri, Timothy Gowers. Automatically Generalizing Proofs and Statements</t>
@@ -1029,7 +1026,7 @@
   </sheetPr>
   <dimension ref="A1:IV65538"/>
   <sheetViews>
-    <sheetView topLeftCell="C59" workbookViewId="0" tabSelected="1">
+    <sheetView topLeftCell="C59" workbookViewId="0">
       <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
@@ -3627,8 +3624,10 @@
       <c r="E78" s="4">
         <v>1</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>74</v>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>Ringeissen</t>
+        </is>
       </c>
     </row>
     <row r="79" spans="1:256">
@@ -3660,7 +3659,7 @@
     <row r="81" spans="1:256" ht="26.25">
       <c r="A81" s="4"/>
       <c r="B81" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
@@ -3668,7 +3667,7 @@
         </is>
       </c>
       <c r="D81" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
@@ -3680,7 +3679,7 @@
     <row r="82" spans="1:256" ht="13.5">
       <c r="A82" s="4"/>
       <c r="B82" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="25"/>
@@ -3690,7 +3689,7 @@
     <row r="83" spans="1:256" ht="26.25">
       <c r="A83" s="4"/>
       <c r="B83" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="12" t="inlineStr">
         <is>
@@ -3698,7 +3697,7 @@
         </is>
       </c>
       <c r="D83" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E83" s="4">
         <v>23</v>
@@ -3742,7 +3741,7 @@
       </c>
       <c r="C86" s="27"/>
       <c r="D86" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E86" s="4">
         <v>4</v>
@@ -3756,11 +3755,11 @@
     <row r="87" spans="1:256" ht="26.25">
       <c r="A87" s="4"/>
       <c r="B87" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="27"/>
       <c r="D87" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E87" s="4">
         <v>16</v>
@@ -3776,7 +3775,7 @@
       <c r="B88" s="26"/>
       <c r="C88" s="19"/>
       <c r="D88" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E88" s="4">
         <v>26</v>
@@ -3797,7 +3796,7 @@
     </row>
     <row r="90" spans="1:256" ht="13.5">
       <c r="A90" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>18</v>
@@ -4088,7 +4087,7 @@
     <row r="93" spans="1:256" ht="39">
       <c r="A93" s="4"/>
       <c r="B93" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
@@ -4096,7 +4095,7 @@
         </is>
       </c>
       <c r="D93" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E93" s="4">
         <v>7</v>
@@ -4110,7 +4109,7 @@
     <row r="94" spans="1:256" ht="26.25">
       <c r="A94" s="4"/>
       <c r="B94" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="12" t="inlineStr">
         <is>
@@ -4118,7 +4117,7 @@
         </is>
       </c>
       <c r="D94" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E94" s="4">
         <v>9</v>
@@ -4132,7 +4131,7 @@
     <row r="95" spans="1:256" ht="26.25">
       <c r="A95" s="4"/>
       <c r="B95" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
@@ -4140,7 +4139,7 @@
         </is>
       </c>
       <c r="D95" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E95" s="4">
         <v>2</v>
@@ -4180,7 +4179,7 @@
     <row r="98" spans="1:256" ht="26.25">
       <c r="A98" s="4"/>
       <c r="B98" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C98" s="12" t="inlineStr">
         <is>
@@ -4188,7 +4187,7 @@
         </is>
       </c>
       <c r="D98" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="4">
         <v>8</v>
@@ -4202,7 +4201,7 @@
     <row r="99" spans="1:256" ht="26.25">
       <c r="A99" s="4"/>
       <c r="B99" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
@@ -4226,7 +4225,7 @@
     <row r="100" spans="1:256" ht="26.25">
       <c r="A100" s="4"/>
       <c r="B100" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="28" t="inlineStr">
         <is>
@@ -4234,7 +4233,7 @@
         </is>
       </c>
       <c r="D100" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E100" s="4">
         <v>28</v>
@@ -4274,7 +4273,7 @@
     <row r="103" spans="1:256" ht="26.25">
       <c r="A103" s="4"/>
       <c r="B103" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" s="12" t="inlineStr">
         <is>
@@ -4282,7 +4281,7 @@
         </is>
       </c>
       <c r="D103" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E103" s="4">
         <v>18</v>
@@ -4296,7 +4295,7 @@
     <row r="104" spans="1:256" ht="26.25">
       <c r="A104" s="4"/>
       <c r="B104" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="12" t="inlineStr">
         <is>
@@ -4320,7 +4319,7 @@
     <row r="105" spans="1:256" ht="13.5">
       <c r="A105" s="4"/>
       <c r="B105" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
@@ -4358,7 +4357,7 @@
     <row r="108" spans="1:256" ht="26.25">
       <c r="A108" s="4"/>
       <c r="B108" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
@@ -4372,7 +4371,7 @@
     <row r="109" spans="1:256" ht="26.25">
       <c r="A109" s="4"/>
       <c r="B109" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="12" t="inlineStr">
         <is>
@@ -4386,7 +4385,7 @@
     <row r="110" spans="1:256" ht="39">
       <c r="A110" s="4"/>
       <c r="B110" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="12" t="inlineStr">
         <is>
@@ -4423,10 +4422,10 @@
     </row>
     <row r="113" spans="1:256" ht="13.5">
       <c r="A113" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -5664,8 +5663,8 @@
   </sheetPr>
   <dimension ref="A1:XFD65543"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A109" workbookViewId="0" tabSelected="1">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6453,7 +6452,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6709,7 +6708,7 @@
     </row>
     <row r="7" spans="1:16384" customHeight="1" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="30" t="inlineStr">
         <is>
@@ -6764,7 +6763,7 @@
     </row>
     <row r="12" spans="1:16384" customHeight="1" ht="15">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="30" t="inlineStr">
         <is>
@@ -6820,7 +6819,7 @@
     </row>
     <row r="17" spans="1:16384" customHeight="1" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="30" t="inlineStr">
         <is>
@@ -6873,7 +6872,7 @@
     </row>
     <row r="22" spans="1:16384" ht="13.5">
       <c r="A22" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="30" t="inlineStr">
         <is>
@@ -6938,10 +6937,10 @@
         <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -7197,7 +7196,7 @@
     </row>
     <row r="30" spans="1:16384" ht="13.5">
       <c r="A30" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="32" t="inlineStr">
         <is>
@@ -7215,8 +7214,10 @@
       <c r="B31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>20</v>
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>Raheleh Jalali. Skolemization Beyond Intuitionistic Logic: The Role of Quantifier Shifts [online]</t>
+        </is>
       </c>
     </row>
     <row r="32" spans="1:16384" ht="26.25">
@@ -7242,7 +7243,7 @@
     </row>
     <row r="35" spans="1:16384" ht="13.5">
       <c r="A35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="32" t="inlineStr">
         <is>
@@ -7662,7 +7663,7 @@
     </row>
     <row r="53" spans="1:16384" ht="13.5">
       <c r="A53" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="32" t="inlineStr">
         <is>
@@ -7832,7 +7833,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C71" s="5" t="inlineStr">
         <is>
@@ -8093,7 +8094,7 @@
     </row>
     <row r="73" spans="1:16384" ht="13.5">
       <c r="A73" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="32" t="inlineStr">
         <is>
@@ -8112,7 +8113,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" s="0"/>
     </row>
@@ -8139,7 +8140,7 @@
     </row>
     <row r="78" spans="1:16384" ht="13.5">
       <c r="A78" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B78" s="7" t="inlineStr">
         <is>
@@ -8187,7 +8188,7 @@
     <row r="83" spans="1:16384" ht="13.5">
       <c r="A83" s="4"/>
       <c r="B83" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="4"/>
     </row>
@@ -8211,26 +8212,26 @@
     <row r="85" spans="1:16384" ht="26.25">
       <c r="A85" s="4"/>
       <c r="B85" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:16384" customHeight="1" ht="27">
       <c r="A86" s="4"/>
       <c r="B86" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" s="17"/>
     </row>
     <row r="87" spans="1:16384" ht="26.25">
       <c r="A87" s="4"/>
       <c r="B87" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="35" t="s">
         <v>78</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:16384">
@@ -8261,13 +8262,13 @@
         <v>37</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:16384" ht="26.25">
       <c r="A91" s="4"/>
       <c r="B91" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" s="35" t="s">
         <v>64</v>
@@ -8278,7 +8279,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="23"/>
       <c r="C92" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:16384">
@@ -8288,10 +8289,10 @@
     </row>
     <row r="94" spans="1:16384" ht="13.5">
       <c r="A94" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C94" s="5" t="inlineStr">
         <is>
@@ -8552,7 +8553,7 @@
     </row>
     <row r="96" spans="1:16384" ht="13.5">
       <c r="A96" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" s="7" t="inlineStr">
         <is>
@@ -8568,28 +8569,28 @@
     <row r="97" spans="1:16384" ht="39">
       <c r="A97" s="4"/>
       <c r="B97" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="35" t="s">
         <v>85</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:16384" ht="26.25">
       <c r="A98" s="4"/>
       <c r="B98" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="35" t="s">
         <v>87</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:16384" ht="26.25">
       <c r="A99" s="4"/>
       <c r="B99" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="35" t="s">
         <v>89</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:16384">
@@ -8599,7 +8600,7 @@
     </row>
     <row r="101" spans="1:16384" ht="13.5">
       <c r="A101" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="7" t="inlineStr">
         <is>
@@ -8615,16 +8616,16 @@
     <row r="102" spans="1:16384" ht="26.25">
       <c r="A102" s="4"/>
       <c r="B102" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:16384" ht="26.25">
       <c r="A103" s="4"/>
       <c r="B103" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C103" s="35" t="inlineStr">
         <is>
@@ -8635,10 +8636,10 @@
     <row r="104" spans="1:16384" ht="26.25">
       <c r="A104" s="4"/>
       <c r="B104" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" s="35" t="s">
         <v>94</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:16384">
@@ -8648,7 +8649,7 @@
     </row>
     <row r="106" spans="1:16384" ht="13.5">
       <c r="A106" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="7" t="inlineStr">
         <is>
@@ -8664,16 +8665,16 @@
     <row r="107" spans="1:16384" ht="26.25">
       <c r="A107" s="4"/>
       <c r="B107" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="35" t="s">
         <v>96</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:16384" ht="26.25">
       <c r="A108" s="4"/>
       <c r="B108" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C108" s="35" t="inlineStr">
         <is>
@@ -8684,7 +8685,7 @@
     <row r="109" spans="1:16384" ht="13.5">
       <c r="A109" s="4"/>
       <c r="B109" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C109" s="17" t="s">
         <v>37</v>
@@ -8711,21 +8712,21 @@
     <row r="112" spans="1:16384" ht="26.25">
       <c r="A112" s="4"/>
       <c r="B112" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:16384" ht="26.25">
       <c r="A113" s="4"/>
       <c r="B113" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C113" s="4"/>
     </row>
     <row r="114" spans="1:16384" ht="39">
       <c r="A114" s="4"/>
       <c r="B114" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C114" s="4"/>
     </row>
@@ -8745,7 +8746,7 @@
     </row>
     <row r="117" spans="1:16384" ht="13.5">
       <c r="A117" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B117" s="5" t="inlineStr">
         <is>
@@ -9007,7 +9008,7 @@
     </row>
     <row r="119" spans="1:16384" ht="13.5">
       <c r="A119" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B119" s="30" t="inlineStr">
         <is>
@@ -9046,7 +9047,7 @@
     </row>
     <row r="124" spans="1:16384" ht="13.5">
       <c r="A124" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B124" s="30" t="inlineStr">
         <is>
@@ -9059,7 +9060,7 @@
       <c r="A125" s="4"/>
       <c r="B125" s="30" t="inlineStr">
         <is>
-          <t>Mauricio Barba da Costa. Automatic Geometry Theorem Proving Using Polynomial Elaboration (20 mins) [online]</t>
+          <t>Mauricio Barba da Costa. Automatic Geometry Theorem Proving Using Polynomial Elaboration (20 mins)</t>
         </is>
       </c>
       <c r="C125" s="4"/>
@@ -9068,7 +9069,7 @@
       <c r="A126" s="4"/>
       <c r="B126" s="30" t="inlineStr">
         <is>
-          <t>Moritz Firsching. The Formal Conjectures Repo (20 mins)</t>
+          <t>Moritz Firsching. The Formal Conjectures Repo (20 mins) [online]</t>
         </is>
       </c>
       <c r="C126" s="4"/>
@@ -9098,7 +9099,7 @@
     </row>
     <row r="130" spans="1:16384" ht="13.5">
       <c r="A130" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B130" s="30" t="inlineStr">
         <is>
@@ -9133,7 +9134,7 @@
     </row>
     <row r="135" spans="1:16384" ht="13.5">
       <c r="A135" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B135" s="30" t="inlineStr">
         <is>
@@ -26359,7 +26360,7 @@
   <sheetData>
     <row r="1" spans="1:251" customHeight="1" ht="15.75">
       <c r="A1" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -26867,10 +26868,10 @@
         </is>
       </c>
       <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>114</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -26878,10 +26879,10 @@
         </is>
       </c>
       <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
         <v>113</v>
-      </c>
-      <c r="G3" t="s">
-        <v>114</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -27636,25 +27637,25 @@
     </row>
     <row r="7" spans="1:251" ht="13.5">
       <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
       <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
         <v>117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>118</v>
       </c>
       <c r="F7">
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:251" ht="13.5"/>
@@ -27921,25 +27922,25 @@
     <row r="11" spans="1:251" ht="12.75"/>
     <row r="12" spans="1:251" ht="13.5">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12">
         <v>74</v>
       </c>
       <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
         <v>117</v>
-      </c>
-      <c r="E12" t="s">
-        <v>118</v>
       </c>
       <c r="F12">
         <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:251" ht="13.5"/>
@@ -28206,44 +28207,44 @@
     <row r="16" spans="1:251" ht="12.75"/>
     <row r="17" spans="1:251" ht="13.5">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17">
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="41">
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:251" ht="13.5">
       <c r="G18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:251" ht="13.5">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20">
         <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -28254,7 +28255,7 @@
         <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -28264,7 +28265,7 @@
     </row>
     <row r="21" spans="1:251" ht="13.5">
       <c r="G21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -28541,25 +28542,25 @@
     <row r="24" spans="1:251" ht="12.75"/>
     <row r="25" spans="1:251" ht="13.5">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25">
         <v>75</v>
       </c>
       <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
         <v>129</v>
-      </c>
-      <c r="E25" t="s">
-        <v>130</v>
       </c>
       <c r="F25">
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -28597,25 +28598,25 @@
     </row>
     <row r="32" spans="1:251" ht="13.5">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32">
         <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32">
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -28633,7 +28634,7 @@
     <row r="35" spans="1:251" ht="12.75"/>
     <row r="36" spans="1:251" ht="13.5">
       <c r="A36" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>18</v>
@@ -28893,62 +28894,62 @@
     <row r="37" spans="1:251" ht="12.75"/>
     <row r="38" spans="1:251" ht="13.5">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38">
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38">
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:251" ht="13.5">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41">
         <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F41">
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:251" ht="13.5">
       <c r="D42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:251" ht="12.75"/>
     <row r="44" spans="1:251" ht="13.5">
       <c r="A44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -29208,7 +29209,7 @@
         </is>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46">
         <v>33</v>
@@ -29267,34 +29268,34 @@
         </is>
       </c>
       <c r="M1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W1" t="inlineStr">
         <is>
@@ -29302,24 +29303,24 @@
         </is>
       </c>
       <c r="X1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5">
       <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>139</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -29327,16 +29328,16 @@
         </is>
       </c>
       <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
         <v>138</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>139</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>140</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -29746,7 +29747,7 @@
     </row>
     <row r="12" spans="1:25" ht="13.5">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="42">
         <f>27-2</f>
@@ -29883,7 +29884,7 @@
     </row>
     <row r="19" spans="1:25" ht="13.5">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M19" s="46"/>
       <c r="N19" s="46"/>
@@ -29953,7 +29954,7 @@
     </row>
     <row r="22" spans="1:25" ht="13.5">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
@@ -29974,7 +29975,7 @@
     </row>
     <row r="24" spans="1:25" ht="13.5">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P24" s="44">
         <f>SUM(P3:P6)+P11+P12+P17+P19+P21+P22</f>
@@ -30077,7 +30078,7 @@
         </is>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -30102,7 +30103,7 @@
         </is>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -30122,7 +30123,7 @@
         </is>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -30147,7 +30148,7 @@
         </is>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="13.5">
@@ -30162,10 +30163,10 @@
         </is>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -30207,7 +30208,7 @@
   <sheetData>
     <row r="1" spans="1:249" customHeight="1" ht="15.75">
       <c r="A1" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -30708,16 +30709,16 @@
     <row r="3" spans="1:249" ht="13.5">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
       <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
         <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -31471,46 +31472,46 @@
     </row>
     <row r="8" spans="1:249" ht="13.5">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="41">
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:249" ht="13.5">
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:249" ht="13.5">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11">
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11">
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:249" ht="13.5">
       <c r="E12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:249" ht="13.5"/>
@@ -31773,19 +31774,19 @@
     </row>
     <row r="16" spans="1:249" ht="13.5">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16">
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:249" ht="13.5"/>
@@ -31799,13 +31800,13 @@
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19">
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:249" ht="13.5">
@@ -31817,7 +31818,7 @@
     </row>
     <row r="23" spans="1:249" ht="13.5">
       <c r="A23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -32072,41 +32073,41 @@
     </row>
     <row r="25" spans="1:249" ht="13.5">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25">
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25">
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:249" ht="13.5">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28">
         <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28">
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:249" ht="13.5">
       <c r="C29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -36,14 +36,72 @@
     <author>Tarmo Uustalu</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="Q19" authorId="0">
+      <text>
+        <t>Olarte, Waddington, Barroso-Nascimento, Studer
+</t>
+      </text>
+    </comment>
+    <comment ref="R19" authorId="0">
+      <text>
+        <t>Stark, Yulu Pan
+</t>
+      </text>
+    </comment>
+    <comment ref="V22" authorId="0">
+      <text>
+        <t>Bjarki</t>
+      </text>
+    </comment>
+    <comment ref="U22" authorId="0">
+      <text>
+        <t>Bjarki	
+</t>
+      </text>
+    </comment>
+    <comment ref="S19" authorId="0">
+      <text>
+        <t>Hähnle, Ramanayake, Jalali
+</t>
+      </text>
+    </comment>
+    <comment ref="P19" authorId="0">
+      <text>
+        <t>Jalali
+</t>
+      </text>
+    </comment>
+    <comment ref="P22" authorId="0">
+      <text>
+        <t>Antonis, Vasiliki
+</t>
+      </text>
+    </comment>
+    <comment ref="U19" authorId="0">
+      <text>
+        <t>Yoshida, H Barbosa
+</t>
+      </text>
+    </comment>
+    <comment ref="T19" authorId="0">
+      <text>
+        <t>Yoshida</t>
+      </text>
+    </comment>
+    <comment ref="Y4" authorId="0">
       <text>
         <t>Motalebi changed from Tableaux Saver Early to Tbl+Fro online presenter</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="B5" authorId="0">
       <text>
-        <t>Sehun Kim cancelled (fully)
+        <t>Changed Affeldt changed from ITP Saver Late to ITP Full Early
+</t>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <t>Changed Affeldt changed from ITP Saver Late to ITP Full Early
 </t>
       </text>
     </comment>
@@ -55,73 +113,15 @@
 </t>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="C5" authorId="0">
       <text>
-        <t>Changed Affeldt changed from ITP Saver Late to ITP Full Early
+        <t>Sehun Kim cancelled (fully)
 </t>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
-      <text>
-        <t>Changed Affeldt changed from ITP Saver Late to ITP Full Early
-</t>
-      </text>
-    </comment>
-    <comment ref="Y4" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <t>Motalebi changed from Tableaux Saver Early to Tbl+Fro online presenter</t>
-      </text>
-    </comment>
-    <comment ref="T19" authorId="0">
-      <text>
-        <t>Yoshida</t>
-      </text>
-    </comment>
-    <comment ref="U19" authorId="0">
-      <text>
-        <t>Yoshida, H Barbosa
-</t>
-      </text>
-    </comment>
-    <comment ref="P22" authorId="0">
-      <text>
-        <t>Antonis, Vasiliki
-</t>
-      </text>
-    </comment>
-    <comment ref="P19" authorId="0">
-      <text>
-        <t>Jalali
-</t>
-      </text>
-    </comment>
-    <comment ref="S19" authorId="0">
-      <text>
-        <t>Hähnle, Ramanayake, Jalali
-</t>
-      </text>
-    </comment>
-    <comment ref="U22" authorId="0">
-      <text>
-        <t>Bjarki	
-</t>
-      </text>
-    </comment>
-    <comment ref="V22" authorId="0">
-      <text>
-        <t>Bjarki</t>
-      </text>
-    </comment>
-    <comment ref="R19" authorId="0">
-      <text>
-        <t>Stark, Yulu Pan
-</t>
-      </text>
-    </comment>
-    <comment ref="Q19" authorId="0">
-      <text>
-        <t>Olarte, Waddington, Barroso-Nascimento, Studer
-</t>
       </text>
     </comment>
   </commentList>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143" count="143">
   <si>
     <t>Sat 27 Sept</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Hanna Lachnitt, Mathias Fleury, Haniel Barbosa, Andrew Reynolds, Jibiana Jakpor, Bruno Andreotti, Clark Barrett, Hans-Jörg Schurr, Cesare Tinelli. Improving the SMT Proof Reconstruction Pipeline in Isabelle/HOL</t>
-  </si>
-  <si>
-    <t>Raheleh Jalali. Skolemization Beyond Intuitionistic Logic: The Role of Quantifier Shifts</t>
   </si>
   <si>
     <t>Ghilain Bergeron, Florent Krasnopol, Sophie Tourret. Formalizing Splitting in Isabelle/HOL</t>
@@ -2248,8 +2245,10 @@
           <t>Barbosa, Jakpor (s), Lachnitt (s), Fleury (=F+T)</t>
         </is>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>20</v>
+      <c r="D28" s="13" t="inlineStr">
+        <is>
+          <t>Raheleh Jalali. Skolemization Beyond Intuitionistic Logic: The Role of Quantifier Shifts</t>
+        </is>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2257,7 +2256,7 @@
     <row r="29" spans="1:256" ht="26.25">
       <c r="A29" s="4"/>
       <c r="B29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
@@ -2271,7 +2270,7 @@
     <row r="30" spans="1:256" customHeight="1" ht="27.75">
       <c r="A30" s="4"/>
       <c r="B30" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="12" t="inlineStr">
         <is>
@@ -2279,7 +2278,7 @@
         </is>
       </c>
       <c r="D30" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="4">
         <v>29</v>
@@ -2325,11 +2324,11 @@
     <row r="33" spans="1:256" ht="26.25">
       <c r="A33" s="4"/>
       <c r="B33" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="4">
         <v>36</v>
@@ -2347,7 +2346,7 @@
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="4">
         <v>12</v>
@@ -2364,7 +2363,7 @@
     <row r="35" spans="1:256" ht="26.25">
       <c r="A35" s="4"/>
       <c r="B35" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
@@ -2372,7 +2371,7 @@
         </is>
       </c>
       <c r="D35" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" s="4">
         <v>39</v>
@@ -2397,7 +2396,7 @@
     </row>
     <row r="37" spans="1:256" ht="13.5">
       <c r="A37" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="11" t="inlineStr">
         <is>
@@ -2416,7 +2415,7 @@
     <row r="38" spans="1:256" ht="26.25">
       <c r="A38" s="4"/>
       <c r="B38" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="12" t="inlineStr">
         <is>
@@ -2424,7 +2423,7 @@
         </is>
       </c>
       <c r="D38" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="10">
         <v>34</v>
@@ -2441,7 +2440,7 @@
     <row r="39" spans="1:256" ht="26.25">
       <c r="A39" s="4"/>
       <c r="B39" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
@@ -2449,7 +2448,7 @@
         </is>
       </c>
       <c r="D39" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="4">
         <v>11</v>
@@ -2466,7 +2465,7 @@
     <row r="40" spans="1:256" ht="26.25">
       <c r="A40" s="4"/>
       <c r="B40" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="12" t="inlineStr">
         <is>
@@ -2474,7 +2473,7 @@
         </is>
       </c>
       <c r="D40" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="4">
         <v>17</v>
@@ -2491,7 +2490,7 @@
     <row r="41" spans="1:256" ht="26.25">
       <c r="A41" s="4"/>
       <c r="B41" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
@@ -2499,7 +2498,7 @@
         </is>
       </c>
       <c r="D41" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2514,14 +2513,14 @@
     </row>
     <row r="43" spans="1:256" ht="13.5">
       <c r="A43" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -2805,7 +2804,7 @@
     <row r="46" spans="1:256" ht="26.25">
       <c r="A46" s="4"/>
       <c r="B46" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="12" t="inlineStr">
         <is>
@@ -2813,7 +2812,7 @@
         </is>
       </c>
       <c r="D46" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="4">
         <v>8</v>
@@ -2827,7 +2826,7 @@
     <row r="47" spans="1:256" ht="26.25">
       <c r="A47" s="4"/>
       <c r="B47" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="12" t="inlineStr">
         <is>
@@ -2835,7 +2834,7 @@
         </is>
       </c>
       <c r="D47" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47" s="4">
         <v>32</v>
@@ -2906,7 +2905,7 @@
     <row r="51" spans="1:256" ht="26.25">
       <c r="A51" s="4"/>
       <c r="B51" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
@@ -2914,7 +2913,7 @@
         </is>
       </c>
       <c r="D51" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E51" s="4">
         <v>3</v>
@@ -2931,7 +2930,7 @@
     <row r="52" spans="1:256" ht="26.25">
       <c r="A52" s="4"/>
       <c r="B52" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="12" t="inlineStr">
         <is>
@@ -2939,13 +2938,13 @@
         </is>
       </c>
       <c r="D52" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="4">
         <v>27</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G52" s="0"/>
       <c r="H52" s="0"/>
@@ -2954,7 +2953,7 @@
     <row r="53" spans="1:256" ht="26.25">
       <c r="A53" s="4"/>
       <c r="B53" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
@@ -2962,13 +2961,13 @@
         </is>
       </c>
       <c r="D53" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E53" s="4">
         <v>15</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G53" s="0"/>
       <c r="H53" s="0"/>
@@ -3003,7 +3002,7 @@
     </row>
     <row r="56" spans="1:256" ht="13.5">
       <c r="A56" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="11" t="inlineStr">
         <is>
@@ -3022,7 +3021,7 @@
     <row r="57" spans="1:256" ht="26.25">
       <c r="A57" s="4"/>
       <c r="B57" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
@@ -3030,7 +3029,7 @@
         </is>
       </c>
       <c r="D57" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -3038,7 +3037,7 @@
     <row r="58" spans="1:256" ht="26.25">
       <c r="A58" s="4"/>
       <c r="B58" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="12" t="inlineStr">
         <is>
@@ -3080,7 +3079,7 @@
     <row r="61" spans="1:256" ht="26.25">
       <c r="A61" s="4"/>
       <c r="B61" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
@@ -3088,7 +3087,7 @@
         </is>
       </c>
       <c r="D61" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" s="4">
         <v>11</v>
@@ -3102,7 +3101,7 @@
     <row r="62" spans="1:256" customHeight="1" ht="27.75">
       <c r="A62" s="4"/>
       <c r="B62" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="12" t="inlineStr">
         <is>
@@ -3110,7 +3109,7 @@
         </is>
       </c>
       <c r="D62" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E62" s="4">
         <v>21</v>
@@ -3124,7 +3123,7 @@
     <row r="63" spans="1:256" ht="26.25">
       <c r="A63" s="4"/>
       <c r="B63" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
@@ -3132,7 +3131,7 @@
         </is>
       </c>
       <c r="D63" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E63" s="4">
         <v>22</v>
@@ -3185,14 +3184,14 @@
     </row>
     <row r="68" spans="1:256" ht="13.5">
       <c r="A68" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -3476,11 +3475,11 @@
     <row r="71" spans="1:256" ht="26.25">
       <c r="A71" s="4"/>
       <c r="B71" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E71" s="4">
         <v>13</v>
@@ -3499,7 +3498,7 @@
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
       <c r="D72" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E72" s="4">
         <v>5</v>
@@ -3516,7 +3515,7 @@
     <row r="73" spans="1:256" ht="26.25">
       <c r="A73" s="4"/>
       <c r="B73" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
@@ -3524,7 +3523,7 @@
         </is>
       </c>
       <c r="D73" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" s="4">
         <v>10</v>
@@ -3567,7 +3566,7 @@
     <row r="76" spans="1:256" ht="26.25">
       <c r="A76" s="4"/>
       <c r="B76" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="12" t="inlineStr">
         <is>
@@ -3575,7 +3574,7 @@
         </is>
       </c>
       <c r="D76" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E76" s="4">
         <v>29</v>
@@ -3589,7 +3588,7 @@
     <row r="77" spans="1:256" ht="26.25">
       <c r="A77" s="4"/>
       <c r="B77" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
@@ -3597,7 +3596,7 @@
         </is>
       </c>
       <c r="D77" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E77" s="4">
         <v>15</v>
@@ -3611,7 +3610,7 @@
     <row r="78" spans="1:256" ht="39">
       <c r="A78" s="4"/>
       <c r="B78" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="12" t="inlineStr">
         <is>
@@ -3619,7 +3618,7 @@
         </is>
       </c>
       <c r="D78" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E78" s="4">
         <v>1</v>
@@ -3659,7 +3658,7 @@
     <row r="81" spans="1:256" ht="26.25">
       <c r="A81" s="4"/>
       <c r="B81" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
@@ -3667,7 +3666,7 @@
         </is>
       </c>
       <c r="D81" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
@@ -3679,7 +3678,7 @@
     <row r="82" spans="1:256" ht="13.5">
       <c r="A82" s="4"/>
       <c r="B82" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="25"/>
@@ -3689,7 +3688,7 @@
     <row r="83" spans="1:256" ht="26.25">
       <c r="A83" s="4"/>
       <c r="B83" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="12" t="inlineStr">
         <is>
@@ -3697,7 +3696,7 @@
         </is>
       </c>
       <c r="D83" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E83" s="4">
         <v>23</v>
@@ -3737,11 +3736,11 @@
     <row r="86" spans="1:256" ht="13.5">
       <c r="A86" s="4"/>
       <c r="B86" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86" s="27"/>
       <c r="D86" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E86" s="4">
         <v>4</v>
@@ -3755,11 +3754,11 @@
     <row r="87" spans="1:256" ht="26.25">
       <c r="A87" s="4"/>
       <c r="B87" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="27"/>
       <c r="D87" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E87" s="4">
         <v>16</v>
@@ -3775,7 +3774,7 @@
       <c r="B88" s="26"/>
       <c r="C88" s="19"/>
       <c r="D88" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E88" s="4">
         <v>26</v>
@@ -3796,14 +3795,14 @@
     </row>
     <row r="90" spans="1:256" ht="13.5">
       <c r="A90" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -4087,7 +4086,7 @@
     <row r="93" spans="1:256" ht="39">
       <c r="A93" s="4"/>
       <c r="B93" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
@@ -4095,7 +4094,7 @@
         </is>
       </c>
       <c r="D93" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E93" s="4">
         <v>7</v>
@@ -4109,7 +4108,7 @@
     <row r="94" spans="1:256" ht="26.25">
       <c r="A94" s="4"/>
       <c r="B94" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C94" s="12" t="inlineStr">
         <is>
@@ -4117,7 +4116,7 @@
         </is>
       </c>
       <c r="D94" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E94" s="4">
         <v>9</v>
@@ -4131,7 +4130,7 @@
     <row r="95" spans="1:256" ht="26.25">
       <c r="A95" s="4"/>
       <c r="B95" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
@@ -4139,7 +4138,7 @@
         </is>
       </c>
       <c r="D95" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E95" s="4">
         <v>2</v>
@@ -4179,7 +4178,7 @@
     <row r="98" spans="1:256" ht="26.25">
       <c r="A98" s="4"/>
       <c r="B98" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" s="12" t="inlineStr">
         <is>
@@ -4187,7 +4186,7 @@
         </is>
       </c>
       <c r="D98" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E98" s="4">
         <v>8</v>
@@ -4201,7 +4200,7 @@
     <row r="99" spans="1:256" ht="26.25">
       <c r="A99" s="4"/>
       <c r="B99" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
@@ -4225,7 +4224,7 @@
     <row r="100" spans="1:256" ht="26.25">
       <c r="A100" s="4"/>
       <c r="B100" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" s="28" t="inlineStr">
         <is>
@@ -4233,7 +4232,7 @@
         </is>
       </c>
       <c r="D100" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E100" s="4">
         <v>28</v>
@@ -4273,7 +4272,7 @@
     <row r="103" spans="1:256" ht="26.25">
       <c r="A103" s="4"/>
       <c r="B103" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C103" s="12" t="inlineStr">
         <is>
@@ -4281,7 +4280,7 @@
         </is>
       </c>
       <c r="D103" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E103" s="4">
         <v>18</v>
@@ -4295,7 +4294,7 @@
     <row r="104" spans="1:256" ht="26.25">
       <c r="A104" s="4"/>
       <c r="B104" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C104" s="12" t="inlineStr">
         <is>
@@ -4319,7 +4318,7 @@
     <row r="105" spans="1:256" ht="13.5">
       <c r="A105" s="4"/>
       <c r="B105" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
@@ -4327,7 +4326,7 @@
         </is>
       </c>
       <c r="D105" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -4342,7 +4341,7 @@
     </row>
     <row r="107" spans="1:256" ht="13.5">
       <c r="A107" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B107" s="23" t="inlineStr">
         <is>
@@ -4357,7 +4356,7 @@
     <row r="108" spans="1:256" ht="26.25">
       <c r="A108" s="4"/>
       <c r="B108" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
@@ -4371,7 +4370,7 @@
     <row r="109" spans="1:256" ht="26.25">
       <c r="A109" s="4"/>
       <c r="B109" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C109" s="12" t="inlineStr">
         <is>
@@ -4385,7 +4384,7 @@
     <row r="110" spans="1:256" ht="39">
       <c r="A110" s="4"/>
       <c r="B110" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C110" s="12" t="inlineStr">
         <is>
@@ -4422,10 +4421,10 @@
     </row>
     <row r="113" spans="1:256" ht="13.5">
       <c r="A113" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -5663,8 +5662,8 @@
   </sheetPr>
   <dimension ref="A1:XFD65543"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0" tabSelected="1">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView topLeftCell="A65" workbookViewId="0" tabSelected="1">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6452,7 +6451,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6708,7 +6707,7 @@
     </row>
     <row r="7" spans="1:16384" customHeight="1" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="30" t="inlineStr">
         <is>
@@ -6763,7 +6762,7 @@
     </row>
     <row r="12" spans="1:16384" customHeight="1" ht="15">
       <c r="A12" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="30" t="inlineStr">
         <is>
@@ -6819,7 +6818,7 @@
     </row>
     <row r="17" spans="1:16384" customHeight="1" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="30" t="inlineStr">
         <is>
@@ -6872,7 +6871,7 @@
     </row>
     <row r="22" spans="1:16384" ht="13.5">
       <c r="A22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="30" t="inlineStr">
         <is>
@@ -6937,10 +6936,10 @@
         <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -7196,7 +7195,7 @@
     </row>
     <row r="30" spans="1:16384" ht="13.5">
       <c r="A30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="32" t="inlineStr">
         <is>
@@ -7223,17 +7222,17 @@
     <row r="32" spans="1:16384" ht="26.25">
       <c r="A32" s="4"/>
       <c r="B32" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:16384" customHeight="1" ht="27.75">
       <c r="A33" s="4"/>
       <c r="B33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:16384">
@@ -7243,7 +7242,7 @@
     </row>
     <row r="35" spans="1:16384" ht="13.5">
       <c r="A35" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="32" t="inlineStr">
         <is>
@@ -7259,26 +7258,26 @@
     <row r="36" spans="1:16384" ht="26.25">
       <c r="A36" s="4"/>
       <c r="B36" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>24</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:16384" customHeight="1" ht="27.75">
       <c r="A37" s="4"/>
       <c r="B37" s="33"/>
       <c r="C37" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:16384" ht="26.25">
       <c r="A38" s="4"/>
       <c r="B38" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:16384">
@@ -7288,7 +7287,7 @@
     </row>
     <row r="40" spans="1:16384" ht="13.5">
       <c r="A40" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="32" t="inlineStr">
         <is>
@@ -7304,37 +7303,39 @@
     <row r="41" spans="1:16384" ht="26.25">
       <c r="A41" s="4"/>
       <c r="B41" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:16384" ht="26.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="32" t="inlineStr">
+        <is>
+          <t>Elaine Li, Thomas Wies. Certified Implementability of Global Multiparty Protocols</t>
+        </is>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:16384" ht="26.25">
       <c r="A43" s="4"/>
       <c r="B43" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:16384" ht="26.25">
       <c r="A44" s="4"/>
       <c r="B44" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:16384">
@@ -7344,7 +7345,7 @@
     </row>
     <row r="46" spans="1:16384" ht="13.5">
       <c r="A46" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="5" t="inlineStr">
         <is>
@@ -7628,19 +7629,19 @@
     <row r="49" spans="1:16384" ht="26.25">
       <c r="A49" s="4"/>
       <c r="B49" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:16384" ht="26.25">
       <c r="A50" s="4"/>
       <c r="B50" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:16384" ht="26.25">
@@ -7663,7 +7664,7 @@
     </row>
     <row r="53" spans="1:16384" ht="13.5">
       <c r="A53" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="32" t="inlineStr">
         <is>
@@ -7679,28 +7680,28 @@
     <row r="54" spans="1:16384" ht="26.25">
       <c r="A54" s="4"/>
       <c r="B54" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:16384" ht="26.25">
       <c r="A55" s="4"/>
       <c r="B55" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:16384" ht="26.25">
       <c r="A56" s="4"/>
       <c r="B56" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:16384">
@@ -7719,7 +7720,7 @@
     </row>
     <row r="59" spans="1:16384" ht="13.5">
       <c r="A59" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="32" t="inlineStr">
         <is>
@@ -7735,16 +7736,16 @@
     <row r="60" spans="1:16384" ht="26.25">
       <c r="A60" s="4"/>
       <c r="B60" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="34" t="s">
         <v>52</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:16384" ht="26.25">
       <c r="A61" s="4"/>
       <c r="B61" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="34"/>
     </row>
@@ -7773,30 +7774,30 @@
     <row r="64" spans="1:16384" ht="26.25">
       <c r="A64" s="4"/>
       <c r="B64" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="35" t="s">
         <v>55</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>56</v>
       </c>
       <c r="D64" s="0"/>
     </row>
     <row r="65" spans="1:16384" customHeight="1" ht="28.5">
       <c r="A65" s="4"/>
       <c r="B65" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>58</v>
       </c>
       <c r="D65" s="0"/>
     </row>
     <row r="66" spans="1:16384" ht="26.25">
       <c r="A66" s="4"/>
       <c r="B66" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="35" t="s">
         <v>59</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>60</v>
       </c>
       <c r="D66" s="0"/>
     </row>
@@ -7830,10 +7831,10 @@
     </row>
     <row r="71" spans="1:16384" ht="13.5">
       <c r="A71" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" s="5" t="inlineStr">
         <is>
@@ -8094,7 +8095,7 @@
     </row>
     <row r="73" spans="1:16384" ht="13.5">
       <c r="A73" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73" s="32" t="inlineStr">
         <is>
@@ -8110,10 +8111,10 @@
     <row r="74" spans="1:16384" ht="26.25">
       <c r="A74" s="4"/>
       <c r="B74" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D74" s="0"/>
     </row>
@@ -8121,16 +8122,16 @@
       <c r="A75" s="4"/>
       <c r="B75" s="33"/>
       <c r="C75" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:16384" ht="26.25">
       <c r="A76" s="4"/>
       <c r="B76" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="35" t="s">
         <v>66</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:16384">
@@ -8140,7 +8141,7 @@
     </row>
     <row r="78" spans="1:16384" ht="13.5">
       <c r="A78" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B78" s="7" t="inlineStr">
         <is>
@@ -8156,28 +8157,28 @@
     <row r="79" spans="1:16384" ht="26.25">
       <c r="A79" s="4"/>
       <c r="B79" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="35" t="s">
         <v>68</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:16384" ht="26.25">
       <c r="A80" s="4"/>
       <c r="B80" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="35" t="s">
         <v>70</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:16384" ht="39">
       <c r="A81" s="4"/>
       <c r="B81" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="35" t="s">
         <v>72</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:16384">
@@ -8188,7 +8189,7 @@
     <row r="83" spans="1:16384" ht="13.5">
       <c r="A83" s="4"/>
       <c r="B83" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83" s="4"/>
     </row>
@@ -8212,26 +8213,26 @@
     <row r="85" spans="1:16384" ht="26.25">
       <c r="A85" s="4"/>
       <c r="B85" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:16384" customHeight="1" ht="27">
       <c r="A86" s="4"/>
       <c r="B86" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="17"/>
     </row>
     <row r="87" spans="1:16384" ht="26.25">
       <c r="A87" s="4"/>
       <c r="B87" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="35" t="s">
         <v>77</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:16384">
@@ -8259,19 +8260,19 @@
     <row r="90" spans="1:16384" ht="13.5">
       <c r="A90" s="4"/>
       <c r="B90" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:16384" ht="26.25">
       <c r="A91" s="4"/>
       <c r="B91" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D91" s="0"/>
     </row>
@@ -8279,7 +8280,7 @@
       <c r="A92" s="4"/>
       <c r="B92" s="23"/>
       <c r="C92" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:16384">
@@ -8289,10 +8290,10 @@
     </row>
     <row r="94" spans="1:16384" ht="13.5">
       <c r="A94" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="5" t="inlineStr">
         <is>
@@ -8553,7 +8554,7 @@
     </row>
     <row r="96" spans="1:16384" ht="13.5">
       <c r="A96" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="7" t="inlineStr">
         <is>
@@ -8569,28 +8570,28 @@
     <row r="97" spans="1:16384" ht="39">
       <c r="A97" s="4"/>
       <c r="B97" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:16384" ht="26.25">
       <c r="A98" s="4"/>
       <c r="B98" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:16384" ht="26.25">
       <c r="A99" s="4"/>
       <c r="B99" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="35" t="s">
         <v>88</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:16384">
@@ -8600,7 +8601,7 @@
     </row>
     <row r="101" spans="1:16384" ht="13.5">
       <c r="A101" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="7" t="inlineStr">
         <is>
@@ -8616,16 +8617,16 @@
     <row r="102" spans="1:16384" ht="26.25">
       <c r="A102" s="4"/>
       <c r="B102" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="35" t="s">
         <v>90</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:16384" ht="26.25">
       <c r="A103" s="4"/>
       <c r="B103" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="35" t="inlineStr">
         <is>
@@ -8636,10 +8637,10 @@
     <row r="104" spans="1:16384" ht="26.25">
       <c r="A104" s="4"/>
       <c r="B104" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="35" t="s">
         <v>93</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:16384">
@@ -8649,7 +8650,7 @@
     </row>
     <row r="106" spans="1:16384" ht="13.5">
       <c r="A106" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="7" t="inlineStr">
         <is>
@@ -8665,16 +8666,16 @@
     <row r="107" spans="1:16384" ht="26.25">
       <c r="A107" s="4"/>
       <c r="B107" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="35" t="s">
         <v>95</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:16384" ht="26.25">
       <c r="A108" s="4"/>
       <c r="B108" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="35" t="inlineStr">
         <is>
@@ -8685,10 +8686,10 @@
     <row r="109" spans="1:16384" ht="13.5">
       <c r="A109" s="4"/>
       <c r="B109" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:16384">
@@ -8712,21 +8713,21 @@
     <row r="112" spans="1:16384" ht="26.25">
       <c r="A112" s="4"/>
       <c r="B112" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:16384" ht="26.25">
       <c r="A113" s="4"/>
       <c r="B113" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C113" s="4"/>
     </row>
     <row r="114" spans="1:16384" ht="39">
       <c r="A114" s="4"/>
       <c r="B114" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C114" s="4"/>
     </row>
@@ -8746,7 +8747,7 @@
     </row>
     <row r="117" spans="1:16384" ht="13.5">
       <c r="A117" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="5" t="inlineStr">
         <is>
@@ -9008,7 +9009,7 @@
     </row>
     <row r="119" spans="1:16384" ht="13.5">
       <c r="A119" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119" s="30" t="inlineStr">
         <is>
@@ -9047,7 +9048,7 @@
     </row>
     <row r="124" spans="1:16384" ht="13.5">
       <c r="A124" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B124" s="30" t="inlineStr">
         <is>
@@ -9099,7 +9100,7 @@
     </row>
     <row r="130" spans="1:16384" ht="13.5">
       <c r="A130" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B130" s="30" t="inlineStr">
         <is>
@@ -9134,7 +9135,7 @@
     </row>
     <row r="135" spans="1:16384" ht="13.5">
       <c r="A135" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B135" s="30" t="inlineStr">
         <is>
@@ -26360,7 +26361,7 @@
   <sheetData>
     <row r="1" spans="1:251" customHeight="1" ht="15.75">
       <c r="A1" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -26868,10 +26869,10 @@
         </is>
       </c>
       <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
         <v>112</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -26879,10 +26880,10 @@
         </is>
       </c>
       <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
         <v>112</v>
-      </c>
-      <c r="G3" t="s">
-        <v>113</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -27637,25 +27638,25 @@
     </row>
     <row r="7" spans="1:251" ht="13.5">
       <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
         <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
       <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
         <v>116</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
       </c>
       <c r="F7">
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:251" ht="13.5"/>
@@ -27922,32 +27923,32 @@
     <row r="11" spans="1:251" ht="12.75"/>
     <row r="12" spans="1:251" ht="13.5">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <v>74</v>
       </c>
       <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
         <v>116</v>
-      </c>
-      <c r="E12" t="s">
-        <v>117</v>
       </c>
       <c r="F12">
         <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:251" ht="13.5"/>
     <row r="14" spans="1:251" ht="13.5"/>
     <row r="15" spans="1:251" ht="13.5">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -27955,7 +27956,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
@@ -28207,44 +28208,44 @@
     <row r="16" spans="1:251" ht="12.75"/>
     <row r="17" spans="1:251" ht="13.5">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17">
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="41">
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:251" ht="13.5">
       <c r="G18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:251" ht="13.5">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20">
         <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -28255,7 +28256,7 @@
         <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -28265,7 +28266,7 @@
     </row>
     <row r="21" spans="1:251" ht="13.5">
       <c r="G21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -28282,7 +28283,7 @@
     </row>
     <row r="23" spans="1:251" ht="13.5">
       <c r="A23" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>18</v>
@@ -28290,7 +28291,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
@@ -28542,25 +28543,25 @@
     <row r="24" spans="1:251" ht="12.75"/>
     <row r="25" spans="1:251" ht="13.5">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25">
         <v>75</v>
       </c>
       <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
         <v>128</v>
-      </c>
-      <c r="E25" t="s">
-        <v>129</v>
       </c>
       <c r="F25">
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -28598,25 +28599,25 @@
     </row>
     <row r="32" spans="1:251" ht="13.5">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32">
         <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32">
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -28634,7 +28635,7 @@
     <row r="35" spans="1:251" ht="12.75"/>
     <row r="36" spans="1:251" ht="13.5">
       <c r="A36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>18</v>
@@ -28642,7 +28643,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
@@ -28894,62 +28895,62 @@
     <row r="37" spans="1:251" ht="12.75"/>
     <row r="38" spans="1:251" ht="13.5">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38">
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F38">
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:251" ht="13.5">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41">
         <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F41">
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:251" ht="13.5">
       <c r="D42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:251" ht="12.75"/>
     <row r="44" spans="1:251" ht="13.5">
       <c r="A44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -29209,7 +29210,7 @@
         </is>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46">
         <v>33</v>
@@ -29268,34 +29269,34 @@
         </is>
       </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W1" t="inlineStr">
         <is>
@@ -29303,24 +29304,24 @@
         </is>
       </c>
       <c r="X1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5">
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>138</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>139</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -29328,16 +29329,16 @@
         </is>
       </c>
       <c r="G2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" t="s">
         <v>137</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>138</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>139</v>
-      </c>
-      <c r="J2" t="s">
-        <v>140</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -29618,7 +29619,7 @@
     </row>
     <row r="6" spans="1:25" ht="13.5">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="42">
         <v>9</v>
@@ -29747,7 +29748,7 @@
     </row>
     <row r="12" spans="1:25" ht="13.5">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="42">
         <f>27-2</f>
@@ -29884,7 +29885,7 @@
     </row>
     <row r="19" spans="1:25" ht="13.5">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M19" s="46"/>
       <c r="N19" s="46"/>
@@ -29954,7 +29955,7 @@
     </row>
     <row r="22" spans="1:25" ht="13.5">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
@@ -29975,7 +29976,7 @@
     </row>
     <row r="24" spans="1:25" ht="13.5">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P24" s="44">
         <f>SUM(P3:P6)+P11+P12+P17+P19+P21+P22</f>
@@ -30078,7 +30079,7 @@
         </is>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -30103,7 +30104,7 @@
         </is>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -30123,7 +30124,7 @@
         </is>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -30148,7 +30149,7 @@
         </is>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="13.5">
@@ -30163,10 +30164,10 @@
         </is>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -30208,7 +30209,7 @@
   <sheetData>
     <row r="1" spans="1:249" customHeight="1" ht="15.75">
       <c r="A1" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -30709,16 +30710,16 @@
     <row r="3" spans="1:249" ht="13.5">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
       <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
         <v>112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>113</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -31215,14 +31216,14 @@
     <row r="5" spans="1:249" ht="13.5"/>
     <row r="6" spans="1:249" ht="26.25">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -31472,59 +31473,59 @@
     </row>
     <row r="8" spans="1:249" ht="13.5">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="41">
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:249" ht="13.5">
       <c r="E9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:249" ht="13.5">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11">
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:249" ht="13.5">
       <c r="E12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:249" ht="13.5"/>
     <row r="14" spans="1:249" ht="13.5">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -31774,19 +31775,19 @@
     </row>
     <row r="16" spans="1:249" ht="13.5">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16">
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:249" ht="13.5"/>
@@ -31800,13 +31801,13 @@
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:249" ht="13.5">
@@ -31818,12 +31819,12 @@
     </row>
     <row r="23" spans="1:249" ht="13.5">
       <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -32073,41 +32074,41 @@
     </row>
     <row r="25" spans="1:249" ht="13.5">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25">
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25">
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:249" ht="13.5">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28">
         <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28">
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:249" ht="13.5">
       <c r="C29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
